--- a/biology/Médecine/David_E._Nichols/David_E._Nichols.xlsx
+++ b/biology/Médecine/David_E._Nichols/David_E._Nichols.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">David E. Nichols, né le 23 décembre 1944, est un pharmacologue et chimiste en médecine américain.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est connu pour son travail sur les psychotropes. Il est le cofondateur et le président de Heffter Research Institute. 
 L'Institut de recherche contribue et soutient la recherche scientifique sur les hallucinogènes classiques et de composés connexes (parfois appelés psychédéliques) afin d'avoir une meilleure compréhension de l'esprit conduisant à l'amélioration de la condition humaine, et soulager la souffrance. [réf. souhaitée]
